--- a/utils/localisation_script/excel_to_json/or/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/or/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/or/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/or/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E399832-CC1B-A54D-BA72-B9A8D10D0605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049BD0F-613B-D949-B875-64CE3F8803D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="7" r:id="rId1"/>
@@ -250,19 +250,7 @@
     <t>Suno/thank you</t>
   </si>
   <si>
-    <t>You’ve earned your &lt;span id=\"current_badge_name\"&gt;&lt;/span&gt; Bhasha Samarthak Badge</t>
-  </si>
-  <si>
-    <t>ତୁମେ ତୁମର &lt;span id=\"current_badge_name\"&gt;&lt;/span&gt; ଭାଷା ସମର୍ଥକ ବ୍ୟାଜ୍ ଅର୍ଜନ କରିଛ</t>
-  </si>
-  <si>
     <t>Bolo/thank you</t>
-  </si>
-  <si>
-    <t>You are just &lt;span id=\"sentense_away_count\"&gt;&lt;/span&gt; recordings away from earning your &lt;span id=\"next_badge_name\"&gt;&lt;/span&gt; Bhasha Samarthak Badge. &lt;a href=\"badges.html\"&gt;Know more&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ତୁମର &lt;span id=\"next_badge_name\"&gt;&lt;/span&gt; ଭାଷା ସମର୍ଥକ ବ୍ୟାଜ୍ ଅର୍ଜନ କରିବାଠାରୁ ତୁମେ କେବଳ &lt;span id=\"sentense_away_count\"&gt;&lt;/span&gt; ରେକର୍ଡିଂ ଦୂରରେ. &lt;a href=\"badges.html\"&gt;ଅଧିକ ଜାଣନ୍ତୁ&lt;/a&gt;</t>
   </si>
   <si>
     <t>Contribute Your Voice</t>
@@ -325,19 +313,31 @@
     <t>ସମସ୍ତ କ୍ଷେତ୍ର ବୈକଳ୍ପିକ କିନ୍ତୁ ଆପଣ ଜନସଂଖ୍ୟା ବିବରଣୀ ପ୍ରଦାନ କରି ଆପଣଙ୍କର ଡାଟାସେଟ୍ ଅବଦାନକୁ ସମୃଦ୍ଧ କରିପାରିବେ</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ଆଗକୁ ବଢିବା &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; ପାଇଁ ଆପଣ ସର୍ତ୍ତାବଳୀଗୁଡିକରେ &lt;/a&gt; ରାଜି ହୁଅନ୍ତୁ</t>
-  </si>
-  <si>
     <t>Dekho/thank you</t>
   </si>
   <si>
-    <t>Help your language achieve it’s goal of &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; hrs. We know you can do more!</t>
+    <t>You’ve earned your &lt;span id="current_badge_name"&gt;&lt;/span&gt; Bhasha Samarthak Badge</t>
   </si>
   <si>
-    <t>&lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; ଘଣ୍ଟାର ଲକ୍ଷ୍ୟ ହାସଲ କରିବାକୁ ତୁମର ଭାଷାକୁ ସାହାଯ୍ୟ କର | ଆମେ ଜାଣୁ ତୁମେ ଅଧିକ କରିପାରିବ!</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Help your language achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; hrs. We know you can do more!</t>
+  </si>
+  <si>
+    <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt; ଘଣ୍ଟାର ଲକ୍ଷ୍ୟ ହାସଲ କରିବାକୁ ତୁମର ଭାଷାକୁ ସାହାଯ୍ୟ କର | ଆମେ ଜାଣୁ ତୁମେ ଅଧିକ କରିପାରିବ!</t>
+  </si>
+  <si>
+    <t>ଆଗକୁ ବଢିବା &lt;a href="../terms-and-conditions.html" target="_blank"&gt; ପାଇଁ ଆପଣ ସର୍ତ୍ତାବଳୀଗୁଡିକରେ &lt;/a&gt; ରାଜି ହୁଅନ୍ତୁ</t>
+  </si>
+  <si>
+    <t>ତୁମର &lt;span id="next_badge_name"&gt;&lt;/span&gt; ଭାଷା ସମର୍ଥକ ବ୍ୟାଜ୍ ଅର୍ଜନ କରିବାଠାରୁ ତୁମେ କେବଳ &lt;span id="sentense_away_count"&gt;&lt;/span&gt; ରେକର୍ଡିଂ ଦୂରରେ. &lt;a href="badges.html"&gt;ଅଧିକ ଜାଣନ୍ତୁ&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ତୁମେ ତୁମର &lt;span id="current_badge_name"&gt;&lt;/span&gt; ଭାଷା ସମର୍ଥକ ବ୍ୟାଜ୍ ଅର୍ଜନ କରିଛ</t>
+  </si>
+  <si>
+    <t>You are just &lt;span id="sentense_away_count"&gt;&lt;/span&gt; recordings away from earning your &lt;span id="next_badge_name"&gt;&lt;/span&gt;  Bhasha Samarthak Badge. &lt;a href="badges.html"&gt;Know more&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -639,12 +639,13 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="1"/>
+    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="2" max="2" width="166" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" style="1" customWidth="1"/>
@@ -1900,11 +1901,11 @@
         <v>75</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1931,14 +1932,14 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1966,11 +1967,11 @@
     <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1998,11 +1999,11 @@
     <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2030,11 +2031,11 @@
     <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2062,11 +2063,11 @@
     <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2094,11 +2095,11 @@
     <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2126,11 +2127,11 @@
     <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2158,11 +2159,11 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2190,11 +2191,11 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2222,11 +2223,11 @@
     <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2254,11 +2255,11 @@
     <row r="51" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2286,7 +2287,7 @@
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
@@ -2317,14 +2318,14 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
